--- a/Docs/Team Gantt Chart.xlsx
+++ b/Docs/Team Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\SubTerra\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8224D9-6236-4E17-A073-B21637BD0AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638BC81A-6CE0-46FC-A86D-396550F77456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Week 1</t>
   </si>
@@ -85,6 +85,102 @@
   </si>
   <si>
     <t>Slack</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Define Enemy Concept</t>
+  </si>
+  <si>
+    <t>Design Enemy Mechanics</t>
+  </si>
+  <si>
+    <t>Integrate w/ Cave Generation</t>
+  </si>
+  <si>
+    <t>Implement AI</t>
+  </si>
+  <si>
+    <t>Test combat and hazards</t>
+  </si>
+  <si>
+    <t>Add loot and feedback</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Player controller</t>
+  </si>
+  <si>
+    <t>Input system</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>Wall climbing</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Inventory and item collection</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Basic class structure</t>
+  </si>
+  <si>
+    <t>Tools class</t>
+  </si>
+  <si>
+    <t>Visual design</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t>Script development</t>
+  </si>
+  <si>
+    <t>Integration w/ game logic</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Mikayla</t>
+  </si>
+  <si>
+    <t>Design sound interface</t>
+  </si>
+  <si>
+    <t>Base sound system</t>
+  </si>
+  <si>
+    <t>Sound decorators</t>
+  </si>
+  <si>
+    <t>Integrate sound into engine</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Nonreusable class</t>
+  </si>
+  <si>
+    <t>Add tool to unity</t>
   </si>
 </sst>
 </file>
@@ -416,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -508,9 +604,6 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
     </row>
@@ -519,9 +612,6 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
         <v>2</v>
       </c>
       <c r="G5" s="1"/>
@@ -536,14 +626,351 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Team Gantt Chart.xlsx
+++ b/Docs/Team Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\SubTerra\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikayladecuire/Desktop/SubTerra/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638BC81A-6CE0-46FC-A86D-396550F77456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D67936-60D1-9B4C-9F56-9A9523100786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="620" windowWidth="26460" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,18 +162,6 @@
     <t>Mikayla</t>
   </si>
   <si>
-    <t>Design sound interface</t>
-  </si>
-  <si>
-    <t>Base sound system</t>
-  </si>
-  <si>
-    <t>Sound decorators</t>
-  </si>
-  <si>
-    <t>Integrate sound into engine</t>
-  </si>
-  <si>
     <t>Tyler</t>
   </si>
   <si>
@@ -181,6 +169,18 @@
   </si>
   <si>
     <t>Add tool to unity</t>
+  </si>
+  <si>
+    <t>Integrate Items etc. as needed</t>
+  </si>
+  <si>
+    <t>Basic Sound System</t>
+  </si>
+  <si>
+    <t>Add Sound to UI</t>
+  </si>
+  <si>
+    <t>Design Decorators</t>
   </si>
 </sst>
 </file>
@@ -228,10 +228,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,16 +515,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -561,7 +562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -581,7 +582,7 @@
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -597,7 +598,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -607,7 +608,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -619,7 +620,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -631,7 +632,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -647,7 +648,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -657,7 +658,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -669,7 +670,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -681,7 +682,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -692,7 +693,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -704,7 +705,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -719,7 +720,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -731,7 +732,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -741,7 +742,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -753,7 +754,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -769,7 +770,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -785,7 +786,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -802,7 +803,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -812,7 +813,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>37</v>
       </c>
@@ -822,7 +823,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -833,7 +834,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -851,7 +852,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -861,7 +862,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>42</v>
       </c>
@@ -870,7 +871,7 @@
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>43</v>
       </c>
@@ -879,12 +880,12 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -894,43 +895,50 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I33" s="1"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="K35" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="3"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -942,16 +950,16 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>37</v>
       </c>
@@ -961,7 +969,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>38</v>
       </c>
